--- a/Data/Input/SDD.xlsx
+++ b/Data/Input/SDD.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mimari" sheetId="2" r:id="rId1"/>
-    <sheet name="Technical Flow Description" sheetId="3" r:id="rId2"/>
+    <sheet name="Technical Flow Description" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Süreç Ne Yapıyor?</t>
   </si>
@@ -90,28 +89,13 @@
     <t>KillProcessWf</t>
   </si>
   <si>
-    <t>ReadExcelWf</t>
-  </si>
-  <si>
     <t>Ekranları kapatır.</t>
-  </si>
-  <si>
-    <t>QueeCleaning</t>
   </si>
   <si>
     <t>Kuyruğu temizler.</t>
   </si>
   <si>
-    <t>QueeLoading</t>
-  </si>
-  <si>
     <t>Kuyruğa veri atar.</t>
-  </si>
-  <si>
-    <t>SendMail</t>
-  </si>
-  <si>
-    <t>Çıktı exceli kişilere iletilir.</t>
   </si>
   <si>
     <t>Bir e-ticaret şirketi, günlük olarak stok durumunu kontrol ediyor ve rapor haline getiriyor.Ürün Listesi Excel'i ile Stok Excel'i arasındaki veriler karşılaştırılarak stok durumu raporu oluşturacak ve bu rapor e-posta ile iletilecektir.</t>
@@ -120,28 +104,73 @@
     <t>İletilen exceldeki veriler.(Malzeme Adı,SKU,Stok Seviyesi,Eksik Stok Miktarı,Stok Durumu)</t>
   </si>
   <si>
-    <t>İş birimi tarafından iletilen ve kuyruğa atılacak excelleri okur</t>
-  </si>
-  <si>
     <t>BuildDataTable</t>
   </si>
   <si>
     <t>Get Transaction Data</t>
   </si>
   <si>
-    <t>Karşılaştırma sonucunda rapor exceli için data table oluşturulur.</t>
-  </si>
-  <si>
-    <t>Kuyruğa eklenen verileri tek tek alır.</t>
-  </si>
-  <si>
     <t>GetTransactionDataWf</t>
   </si>
   <si>
-    <t>AddDataRow</t>
+    <t>İş birimi tarafından iletilen Product List exceli okunur.</t>
   </si>
   <si>
-    <t>Kuyruktan alınan veriyi buraya ekler.</t>
+    <t>İş birimi tarafından iletilen Product Stock exceli okunur.</t>
+  </si>
+  <si>
+    <t>ReadToProductListExcel Wf</t>
+  </si>
+  <si>
+    <t>ReadToProductStockExcel Wf</t>
+  </si>
+  <si>
+    <t>Product List ve Product Stock excellerini tek data table da tutmak için iki data table ı birleştirme işlemi yapar.</t>
+  </si>
+  <si>
+    <t>Report Excel için boş data table oluşturulur.</t>
+  </si>
+  <si>
+    <t>Kuyruğa eklenen verileri Process Transactiona göndermek için tek tek alır.</t>
+  </si>
+  <si>
+    <t>ProcessWf</t>
+  </si>
+  <si>
+    <t>Kuyruktan row olarak gelen transactionın her column ı assign a atanır. Add Data Row ile bu değerler Report Excele eklenir.</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>İnternet bağlantısı ile ilgili sorun olduğu takdirde kuyruktan veri alınamayabilir.</t>
+  </si>
+  <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>İş birimi tarafından iletilen excellerde veri değerleri yanlış girilmiş olabilir.</t>
+  </si>
+  <si>
+    <t>CreateReportExcelDteNowWf</t>
+  </si>
+  <si>
+    <t>Report Rxcel için oluşturulan data table a sayfa adı ve excel adına gün ismi verilerek yeni folder ve yeni excel oluşturulur.</t>
+  </si>
+  <si>
+    <t>Report Excel ilgili kişilere iletilir.</t>
+  </si>
+  <si>
+    <t>SendMailWf</t>
+  </si>
+  <si>
+    <t>JoinProductListandStockExcelWf</t>
+  </si>
+  <si>
+    <t>QueeLoadingWf</t>
+  </si>
+  <si>
+    <t>QueeCleaningWf</t>
   </si>
 </sst>
 </file>
@@ -680,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -811,6 +840,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,18 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,22 +961,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>605821</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66377</xdr:rowOff>
+      <xdr:colOff>598201</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>143721</xdr:colOff>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>102733</xdr:rowOff>
+      <xdr:rowOff>110352</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Dikdörtgen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9512BD2E-BF0D-B7C2-E439-77FD8BEAD7DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9512BD2E-BF0D-B7C2-E439-77FD8BEAD7DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -943,8 +984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2434621" y="320377"/>
-          <a:ext cx="5024300" cy="8075456"/>
+          <a:off x="2427001" y="426719"/>
+          <a:ext cx="4895819" cy="7638913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -973,7 +1014,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="tr-TR" sz="1200" b="1"/>
-            <a:t>Init</a:t>
+            <a:t>İnit</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -995,10 +1036,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3">
+        <xdr:cNvPr id="3" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{218EE289-CF03-54DB-9873-4930B8D5ECB3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218EE289-CF03-54DB-9873-4930B8D5ECB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1006,8 +1047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4311832" y="492034"/>
-          <a:ext cx="1028700" cy="484415"/>
+          <a:off x="4311832" y="489857"/>
+          <a:ext cx="1028700" cy="477883"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1063,22 +1104,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>151312</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>125184</xdr:rowOff>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Dikdörtgen 4">
+        <xdr:cNvPr id="4" name="Dikdörtgen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8042E8A2-BCE9-A175-B3A1-B0D2D5A42C66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8042E8A2-BCE9-A175-B3A1-B0D2D5A42C66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,8 +1127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2589712" y="1094013"/>
-          <a:ext cx="2221774" cy="3946073"/>
+          <a:off x="2536372" y="2171700"/>
+          <a:ext cx="4489268" cy="4838700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1134,22 +1175,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>106642</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>162951</xdr:rowOff>
+      <xdr:colOff>210056</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>123515</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1133</xdr:rowOff>
+      <xdr:colOff>226929</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Dikdörtgen 5">
+        <xdr:cNvPr id="5" name="Dikdörtgen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23B10482-B411-4977-9AE8-2EF4E66EF627}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B10482-B411-4977-9AE8-2EF4E66EF627}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1157,8 +1198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8075578" y="577901"/>
-          <a:ext cx="6146823" cy="7986301"/>
+          <a:off x="8134856" y="403860"/>
+          <a:ext cx="6112873" cy="8773885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1197,22 +1238,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>70393</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>64947</xdr:rowOff>
+      <xdr:colOff>39913</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>382812</xdr:colOff>
+      <xdr:colOff>352332</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:rowOff>53885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Dikdörtgen 6">
+        <xdr:cNvPr id="6" name="Dikdörtgen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58469D21-13C9-47E6-B443-048E96E79994}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58469D21-13C9-47E6-B443-048E96E79994}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,8 +1261,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14700793" y="496747"/>
-          <a:ext cx="5189219" cy="8071218"/>
+          <a:off x="14670313" y="411480"/>
+          <a:ext cx="5189219" cy="7780565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1272,10 +1313,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Oval 19">
+        <xdr:cNvPr id="7" name="Oval 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6CBA0BA-50D0-461F-A199-BFC056F64E73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CBA0BA-50D0-461F-A199-BFC056F64E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,8 +1324,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16823872" y="7678780"/>
-          <a:ext cx="1028700" cy="484413"/>
+          <a:off x="16823872" y="7586251"/>
+          <a:ext cx="1028700" cy="480059"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1352,10 +1393,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Elmas 24">
+        <xdr:cNvPr id="8" name="Elmas 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4DC1D83-888A-414C-9F51-D4C6626C49A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DC1D83-888A-414C-9F51-D4C6626C49A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,8 +1404,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="338449" y="1554610"/>
-          <a:ext cx="1139927" cy="728831"/>
+          <a:off x="338449" y="1517054"/>
+          <a:ext cx="1134484" cy="698351"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1432,10 +1473,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Dikdörtgen 25">
+        <xdr:cNvPr id="9" name="Dikdörtgen 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,8 +1484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247681" y="2445976"/>
-          <a:ext cx="1332670" cy="365126"/>
+          <a:off x="247681" y="2387355"/>
+          <a:ext cx="1325880" cy="353658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1512,10 +1553,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Akış Çizelgesi: İç Depolama 32">
+        <xdr:cNvPr id="10" name="Akış Çizelgesi: İç Depolama 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C18FA074-2866-7680-639C-D6C8F0EB24CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18FA074-2866-7680-639C-D6C8F0EB24CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,8 +1564,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="239486" y="2873829"/>
-          <a:ext cx="1338942" cy="250371"/>
+          <a:off x="239486" y="2841172"/>
+          <a:ext cx="1338942" cy="248194"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartInternalStorage">
           <a:avLst/>
@@ -1587,10 +1628,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Akış Çizelgesi: Çok Sayıda Belge 33">
+        <xdr:cNvPr id="11" name="Akış Çizelgesi: Çok Sayıda Belge 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30C4D39C-EF1D-7923-278E-465D3E5ED821}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C4D39C-EF1D-7923-278E-465D3E5ED821}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,8 +1639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="402772" y="3331027"/>
-          <a:ext cx="990600" cy="631371"/>
+          <a:off x="402772" y="3294016"/>
+          <a:ext cx="990600" cy="624839"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMultidocument">
           <a:avLst/>
@@ -1662,10 +1703,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Yamuk 34">
+        <xdr:cNvPr id="12" name="Yamuk 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C23F558-F317-878B-05A3-63ACF9CBE69D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C23F558-F317-878B-05A3-63ACF9CBE69D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,8 +1714,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="370113" y="4180113"/>
-          <a:ext cx="1055915" cy="511630"/>
+          <a:off x="370113" y="4132216"/>
+          <a:ext cx="1055915" cy="507276"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst/>
@@ -1724,156 +1765,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>261259</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>402772</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Akış Çizelgesi: Çok Sayıda Belge 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CC3C263-B46A-4492-ACE7-99550287B8AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2699659" y="1393370"/>
-          <a:ext cx="1970313" cy="511631"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMultidocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="tr-TR" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Tüm uygulamaların kapatılması</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>239487</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>32659</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>402772</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Akış Çizelgesi: Çok Sayıda Belge 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A1EAE33-FCC2-417A-AF02-CD0682F3A83D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2677887" y="1959430"/>
-          <a:ext cx="1992085" cy="489856"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMultidocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="tr-TR" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Queue Temizleme</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>576944</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -1887,10 +1778,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Ok: Yukarı Bükülü 8">
+        <xdr:cNvPr id="15" name="Ok: Yukarı Bükülü 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF4FB60E-1732-7946-6B1C-5F0DC234D2E1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4FB60E-1732-7946-6B1C-5F0DC234D2E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,8 +1789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="576944" y="5050971"/>
-          <a:ext cx="642257" cy="468085"/>
+          <a:off x="576944" y="4994365"/>
+          <a:ext cx="642257" cy="461554"/>
         </a:xfrm>
         <a:prstGeom prst="curvedUpArrow">
           <a:avLst/>
@@ -1967,10 +1858,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Düz Ok Bağlayıcısı 26">
+        <xdr:cNvPr id="16" name="Düz Ok Bağlayıcısı 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59838ACF-B47D-D2DC-5525-DDD68DBE2163}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59838ACF-B47D-D2DC-5525-DDD68DBE2163}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1869,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="424543" y="5758543"/>
+          <a:off x="424543" y="5693229"/>
           <a:ext cx="1066800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2023,10 +1914,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Bağlayıcı: Dirsek 30">
+        <xdr:cNvPr id="17" name="Bağlayıcı: Dirsek 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D911DDB8-7F35-D467-EF83-37B5B9A8F3A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D911DDB8-7F35-D467-EF83-37B5B9A8F3A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,8 +1925,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="435428" y="5998029"/>
-          <a:ext cx="1066801" cy="348342"/>
+          <a:off x="435428" y="5928360"/>
+          <a:ext cx="1066801" cy="346165"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2079,10 +1970,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Düz Ok Bağlayıcısı 26">
+        <xdr:cNvPr id="18" name="Düz Ok Bağlayıcısı 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36250D3D-6E65-4F66-967D-C09BE1EA4BDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36250D3D-6E65-4F66-967D-C09BE1EA4BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,8 +1981,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="6543995"/>
-          <a:ext cx="9525" cy="385482"/>
+          <a:off x="381000" y="6469972"/>
+          <a:ext cx="9525" cy="378951"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2135,10 +2026,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Düz Ok Bağlayıcısı 26">
+        <xdr:cNvPr id="19" name="Düz Ok Bağlayıcısı 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B56F2544-E6E8-4019-99B3-3021F7A6BE91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56F2544-E6E8-4019-99B3-3021F7A6BE91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,8 +2037,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="619125" y="6542314"/>
-          <a:ext cx="390525" cy="360269"/>
+          <a:off x="619125" y="6468291"/>
+          <a:ext cx="390525" cy="355915"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2191,10 +2082,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Düz Ok Bağlayıcısı 26">
+        <xdr:cNvPr id="20" name="Düz Ok Bağlayıcısı 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3D9CE94-8B0C-4901-9A9A-10351CAA8EF6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D9CE94-8B0C-4901-9A9A-10351CAA8EF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,8 +2093,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1123950" y="6551839"/>
-          <a:ext cx="381000" cy="358588"/>
+          <a:off x="1123950" y="6477816"/>
+          <a:ext cx="381000" cy="354234"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2234,23 +2125,1218 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>78350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>115798</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276497</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714897" y="4439192"/>
+          <a:ext cx="1940923" cy="483328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Product List ve Product Stock excelleri okuma</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2764972" y="6377937"/>
+          <a:ext cx="1898468" cy="449583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kuyruğa join edilen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> data table daki veriler atılır.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>87875</xdr:colOff>
+      <xdr:colOff>365227</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>118524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8290027" y="2396904"/>
+          <a:ext cx="2233193" cy="734916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kuyruktan row olarak gelen her</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>transactionın her column ı bir assign a atanır. </a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371758</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166551</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296558" y="3638964"/>
+          <a:ext cx="2233193" cy="773016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Data Row ile assign edilen değerler ilgili sutunlara eklenir. Output olarak Report Excel için init te oluşturulan build data table a eklenir.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>157308</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>134723</xdr:rowOff>
+      <xdr:rowOff>56474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Elmas 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DC1D83-888A-414C-9F51-D4C6626C49A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10520508" y="841334"/>
+          <a:ext cx="1519091" cy="1161636"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kuyruktan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> veri geldi mi</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>108325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>77289</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12909925" y="2362199"/>
+          <a:ext cx="1188164" cy="881743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>System</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> exception atılır ve İnit e tekrar gider</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Ok: Yukarı Bükülü 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4FB60E-1732-7946-6B1C-5F0DC234D2E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12923520" y="3373353"/>
+          <a:ext cx="1234440" cy="461554"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Throw</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>288107</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>126634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>82900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16137707" y="911494"/>
+          <a:ext cx="2233193" cy="841106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Report</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Excel için her gün oluşturulacak excel file ve folder oluşturulup Date Now ile sheet ve excel smi verilir.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>377370</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>172163</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16226970" y="2223222"/>
+          <a:ext cx="2233193" cy="536796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Send Email ile ilgili kişilere Report</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Excel gönderilir.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>288472</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>155664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400595</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2726872" y="5360124"/>
+          <a:ext cx="1940923" cy="568236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Product List ve Product Stock excelleri join işlemi ile tek data table haline getirilir.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273233</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2711633" y="3584664"/>
+          <a:ext cx="1936568" cy="415836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Queue temizlenir.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>227512</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2665912" y="2738844"/>
+          <a:ext cx="1959428" cy="377736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tüm uygulamalar kapatılır.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26701</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157329</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4903501" y="2674619"/>
+          <a:ext cx="1959428" cy="377736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tüm uygulamalar kapatılır.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>224821</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355449</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3882421" y="7376158"/>
+          <a:ext cx="1959428" cy="472441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Report Excel için build data table oluşturulur.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>555172</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564697</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Düz Ok Bağlayıcısı 26">
+        <xdr:cNvPr id="54" name="Düz Ok Bağlayıcısı 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{657172BC-0CF5-4AE0-AA36-61EA20AA5052}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36250D3D-6E65-4F66-967D-C09BE1EA4BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,8 +3344,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8047286" y="530748"/>
-          <a:ext cx="9525" cy="396153"/>
+          <a:off x="3603172" y="3150324"/>
+          <a:ext cx="9525" cy="378951"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2286,6 +3372,1073 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>578032</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>587557</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123135</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Düz Ok Bağlayıcısı 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36250D3D-6E65-4F66-967D-C09BE1EA4BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3626032" y="4034244"/>
+          <a:ext cx="9525" cy="378951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593272</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>117564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602797</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Düz Ok Bağlayıcısı 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36250D3D-6E65-4F66-967D-C09BE1EA4BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3641272" y="4956264"/>
+          <a:ext cx="9525" cy="378951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585652</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595177</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>69795</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Düz Ok Bağlayıcısı 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36250D3D-6E65-4F66-967D-C09BE1EA4BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3633652" y="5992584"/>
+          <a:ext cx="9525" cy="378951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>537240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Elmas 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DC1D83-888A-414C-9F51-D4C6626C49A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194840" y="1203960"/>
+          <a:ext cx="1253459" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Config is nothing</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205741</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112428</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Düz Ok Bağlayıcısı 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56F2544-E6E8-4019-99B3-3021F7A6BE91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3835734" y="2031666"/>
+          <a:ext cx="571501" cy="516287"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>392461</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Düz Ok Bağlayıcısı 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D9CE94-8B0C-4901-9A9A-10351CAA8EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5191140" y="1983119"/>
+          <a:ext cx="647701" cy="491459"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="446917" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="65 Metin kutusu"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3375660" y="2423160"/>
+          <a:ext cx="446917" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100"/>
+            <a:t>True</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="474810" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="67 Metin kutusu"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5875020" y="2385060"/>
+          <a:ext cx="474810" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100"/>
+            <a:t>False</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>164336</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>173861</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180831</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Düz Ok Bağlayıcısı 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36250D3D-6E65-4F66-967D-C09BE1EA4BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9308336" y="3177540"/>
+          <a:ext cx="9525" cy="378951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>421544</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Düz Ok Bağlayıcısı 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56F2544-E6E8-4019-99B3-3021F7A6BE91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="9486900" y="1691640"/>
+          <a:ext cx="1297844" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>248156</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Düz Ok Bağlayıcısı 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D9CE94-8B0C-4901-9A9A-10351CAA8EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11830556" y="1645920"/>
+          <a:ext cx="1595884" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>491996</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>501521</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119871</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Düz Ok Bağlayıcısı 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36250D3D-6E65-4F66-967D-C09BE1EA4BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11464796" y="2019300"/>
+          <a:ext cx="9525" cy="378951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11936</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>159062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10984736" y="2545080"/>
+          <a:ext cx="1188164" cy="989642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B002</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Business</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Exception atılır ve bir sonrakı transaction a gecılır</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Ok: Yukarı Bükülü 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4FB60E-1732-7946-6B1C-5F0DC234D2E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11102340" y="3680460"/>
+          <a:ext cx="1036320" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Throw</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215173</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>224698</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97011</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Düz Ok Bağlayıcısı 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36250D3D-6E65-4F66-967D-C09BE1EA4BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17283973" y="1813560"/>
+          <a:ext cx="9525" cy="378951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>260893</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>270418</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Düz Ok Bağlayıcısı 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36250D3D-6E65-4F66-967D-C09BE1EA4BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17329693" y="2842260"/>
+          <a:ext cx="9525" cy="378951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>436153</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>230946</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>64356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Dikdörtgen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B653B1C-2968-90DA-D6D5-026F19022269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16285753" y="3268980"/>
+          <a:ext cx="2233193" cy="536796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tüm uygulamalar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> kapatılır.</a:t>
+          </a:r>
+          <a:endParaRPr lang="tr-TR" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2588,16 +4741,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.33203125" customWidth="1"/>
     <col min="4" max="6" width="35.6640625" customWidth="1"/>
     <col min="7" max="7" width="32.109375" customWidth="1"/>
@@ -2605,57 +4758,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="32.4" customHeight="1" thickBot="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="24" thickBot="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="63" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="66"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="91.95" customHeight="1" thickBot="1">
-      <c r="A4" s="67" t="s">
-        <v>30</v>
+      <c r="A4" s="71" t="s">
+        <v>25</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="67" t="s">
-        <v>31</v>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="71" t="s">
+        <v>26</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="24" thickBot="1">
@@ -2686,14 +4839,14 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="25.2" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -2702,12 +4855,12 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="25.2" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2716,12 +4869,12 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="25.2" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -2730,133 +4883,141 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="25.2" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" customHeight="1">
+      <c r="A10" s="63"/>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="25.2" customHeight="1">
+      <c r="A11" s="63"/>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A12" s="63"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="25.2" customHeight="1">
+      <c r="A13" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.2" customHeight="1">
+      <c r="A14" s="56"/>
+      <c r="B14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.2" customHeight="1">
-      <c r="A11" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" ht="25.2" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="25.2" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:9" s="41" customFormat="1" ht="25.2" customHeight="1">
-      <c r="A14" s="56" t="s">
-        <v>34</v>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="25.2" customHeight="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" s="41" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A16" s="60" t="s">
+        <v>28</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>37</v>
+      <c r="B16" s="37" t="s">
+        <v>29</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="1:9" s="41" customFormat="1" ht="25.2" customHeight="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:9" s="41" customFormat="1" ht="25.2" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="44"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="40"/>
     </row>
-    <row r="17" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:8" s="41" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" ht="51.6" customHeight="1">
+      <c r="A18" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A18" s="49"/>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A19" s="49"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="46"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2866,7 +5027,7 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A20" s="49"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="46"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2876,7 +5037,7 @@
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A21" s="48"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="46"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2886,7 +5047,7 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="47"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -2895,12 +5056,16 @@
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:8" ht="55.8" customHeight="1">
+      <c r="A23" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>40</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
@@ -2908,7 +5073,7 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A24" s="51"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="5"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -2918,11 +5083,15 @@
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="54.75" customHeight="1">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
@@ -2930,7 +5099,7 @@
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="7"/>
       <c r="C26" s="27"/>
       <c r="D26" s="23"/>
@@ -2939,52 +5108,66 @@
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A27" s="54" t="s">
+    <row r="27" spans="1:8" ht="61.5" customHeight="1" thickBot="1">
+      <c r="A27" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
+      <c r="B27" s="49" t="s">
+        <v>43</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>29</v>
+      <c r="C27" s="27" t="s">
+        <v>44</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="24" thickBot="1">
-      <c r="F29" s="2" t="s">
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
+    </row>
+    <row r="28" spans="1:8" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A28" s="54"/>
+      <c r="B28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A29" s="55"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" ht="24" thickBot="1">
+      <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="26"/>
+      <c r="G30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A6:A12"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2995,32 +5178,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18:AJ19"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:31" ht="18.600000000000001" thickBot="1">
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="76"/>
-    </row>
-    <row r="2" spans="1:31" ht="13.95" customHeight="1"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
+    </row>
     <row r="3" spans="1:31">
       <c r="AE3" t="s">
         <v>18</v>
@@ -3028,11 +5210,11 @@
     </row>
     <row r="6" spans="1:31" ht="15" thickBot="1"/>
     <row r="7" spans="1:31" ht="16.2" thickBot="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:31">
@@ -3166,12 +5348,11 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="J1:X1"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="J1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
